--- a/(1분반)2013136025_김용규_마이크로프로세서_재료구매신청서.xlsx
+++ b/(1분반)2013136025_김용규_마이크로프로세서_재료구매신청서.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\공부\마이크로프로세서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\대학원\조교\2016년 2학기\마이크로프로세서\stu\2013136025\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -140,8 +140,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,7 +218,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -287,21 +287,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -311,7 +296,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -333,27 +318,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -363,8 +327,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -753,83 +735,83 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="3" width="17.125" customWidth="1"/>
     <col min="6" max="6" width="33.625" customWidth="1"/>
     <col min="7" max="7" width="32.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="16"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="9"/>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="7">
         <v>1</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="7">
         <v>2013136025</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="16"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="16"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="16"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -854,59 +836,60 @@
       <c r="H6" s="4"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="89.25" customHeight="1">
       <c r="A7" s="6">
         <v>1</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <v>9700</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="12">
         <v>1</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="11">
         <v>9700</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="13" t="s">
         <v>19</v>
       </c>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:9" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="82.5" customHeight="1">
       <c r="A8" s="6">
         <v>2</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="12">
         <v>7200</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="12">
         <v>1</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="12">
         <v>7200</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="12" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" spans="1:9" ht="87" customHeight="1">
       <c r="A9" s="6">
         <v>3</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -915,7 +898,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -924,7 +907,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -933,7 +916,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -942,7 +925,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -951,7 +934,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -960,7 +943,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -969,7 +952,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>

--- a/(1분반)2013136025_김용규_마이크로프로세서_재료구매신청서.xlsx
+++ b/(1분반)2013136025_김용규_마이크로프로세서_재료구매신청서.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\대학원\조교\2016년 2학기\마이크로프로세서\stu\2013136025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\공부\마이크로프로세서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -140,8 +140,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,7 +218,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -287,6 +287,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -296,7 +311,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -318,6 +333,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -326,27 +365,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -735,83 +753,83 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="3" width="17.125" customWidth="1"/>
     <col min="6" max="6" width="33.625" customWidth="1"/>
     <col min="7" max="7" width="32.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="9"/>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="17"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="15">
         <v>1</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="17"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="15">
         <v>2013136025</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="17"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -836,60 +854,59 @@
       <c r="H6" s="4"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" ht="89.25" customHeight="1">
+    <row r="7" spans="1:9" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>1</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="12">
         <v>9700</v>
       </c>
-      <c r="D7" s="12">
-        <v>1</v>
-      </c>
-      <c r="E7" s="11">
+      <c r="D7" s="13">
+        <v>2</v>
+      </c>
+      <c r="E7" s="12">
         <v>9700</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="14" t="s">
         <v>19</v>
       </c>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:9" ht="82.5" customHeight="1">
+    <row r="8" spans="1:9" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>2</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="13">
         <v>7200</v>
       </c>
-      <c r="D8" s="12">
-        <v>1</v>
-      </c>
-      <c r="E8" s="12">
+      <c r="D8" s="13">
+        <v>2</v>
+      </c>
+      <c r="E8" s="13">
         <v>7200</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="14"/>
-    </row>
-    <row r="9" spans="1:9" ht="87" customHeight="1">
+    </row>
+    <row r="9" spans="1:9" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>3</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="B9" s="10"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -898,7 +915,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -907,7 +924,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -916,7 +933,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -925,7 +942,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -934,7 +951,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -943,7 +960,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -952,7 +969,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -960,8 +977,7 @@
         <v>8</v>
       </c>
       <c r="E17" s="3">
-        <f>SUM(E7:E16)</f>
-        <v>16900</v>
+        <v>33800</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
